--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\LP_Sochi\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA70CF8-532C-4FAC-9EB2-E09BA8244D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D06CF-6731-48FA-A749-138C0360DC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,10 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$573</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$512</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$574</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$513</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1011">
   <si>
     <t>1С</t>
   </si>
@@ -6327,7 +6327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17569,7 +17569,7 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>964</v>
@@ -17588,555 +17588,555 @@
       </c>
       <c r="G484" s="1"/>
     </row>
-    <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D485" s="4">
+        <v>4301071094</v>
+      </c>
+      <c r="E485" s="3">
+        <v>4620207491140</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D486" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E485" s="3">
+      <c r="E486" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F485" s="5" t="s">
+      <c r="F486" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="10" t="s">
-        <v>972</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="D487" s="4">
-        <v>4301132188</v>
+        <v>4301132190</v>
       </c>
       <c r="E487" s="3">
-        <v>4607111036605</v>
+        <v>4607111036537</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="D488" s="4">
-        <v>4301071090</v>
+        <v>4301132188</v>
       </c>
       <c r="E488" s="3">
-        <v>4620207490075</v>
+        <v>4607111036605</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D489" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E489" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="D490" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E490" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="D491" s="4">
-        <v>4301135574</v>
+        <v>4301071044</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111033659</v>
+        <v>4607111039385</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
       <c r="D492" s="4">
-        <v>4301131047</v>
+        <v>4301135574</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111034120</v>
+        <v>4607111033659</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>876</v>
+        <v>776</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>877</v>
+        <v>777</v>
       </c>
       <c r="D493" s="4">
-        <v>4301131046</v>
+        <v>4301131047</v>
       </c>
       <c r="E493" s="3">
-        <v>4607111034137</v>
+        <v>4607111034120</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>878</v>
+        <v>778</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>934</v>
+        <v>876</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>935</v>
+        <v>877</v>
       </c>
       <c r="D494" s="4">
-        <v>4301135793</v>
+        <v>4301131046</v>
       </c>
       <c r="E494" s="3">
-        <v>4620207491003</v>
+        <v>4607111034137</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>936</v>
+        <v>878</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135760</v>
+        <v>4301135793</v>
       </c>
       <c r="E495" s="3">
-        <v>4620207491010</v>
+        <v>4620207491003</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D496" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E496" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B497" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C497" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D497" s="4">
         <v>4301135285</v>
       </c>
-      <c r="E496" s="3">
+      <c r="E497" s="3">
         <v>4607111036407</v>
       </c>
-      <c r="F496" s="5" t="s">
+      <c r="F497" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="10" t="s">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D498" s="4">
         <v>4301136070</v>
       </c>
-      <c r="E497" s="3">
+      <c r="E498" s="3">
         <v>4607025784012</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F498" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="10" t="s">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B499" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C498" s="3" t="s">
+      <c r="C499" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D498" s="4">
+      <c r="D499" s="4">
         <v>4301071051</v>
       </c>
-      <c r="E498" s="3">
+      <c r="E499" s="3">
         <v>4607111039262</v>
       </c>
-      <c r="F498" s="5" t="s">
+      <c r="F499" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="10" t="s">
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B500" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D500" s="4">
         <v>4301071038</v>
       </c>
-      <c r="E499" s="3">
+      <c r="E500" s="3">
         <v>4607111039248</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F500" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="10" t="s">
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
         <v>986</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B501" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D501" s="4">
         <v>4301071049</v>
       </c>
-      <c r="E500" s="3">
+      <c r="E501" s="3">
         <v>4607111039293</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F501" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="10" t="s">
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B502" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C501" s="3" t="s">
+      <c r="C502" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D501" s="4">
+      <c r="D502" s="4">
         <v>4301071039</v>
       </c>
-      <c r="E501" s="3">
+      <c r="E502" s="3">
         <v>4607111039279</v>
       </c>
-      <c r="F501" s="5" t="s">
+      <c r="F502" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="10" t="s">
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="C503" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D503" s="4">
         <v>4301135555</v>
       </c>
-      <c r="E502" s="3">
+      <c r="E503" s="3">
         <v>4607111034014</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F503" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="10" t="s">
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B504" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C504" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D504" s="4">
         <v>4301135532</v>
       </c>
-      <c r="E503" s="3">
+      <c r="E504" s="3">
         <v>4607111033994</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F504" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="10" t="s">
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B505" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C504" s="3" t="s">
+      <c r="C505" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D504" s="4">
+      <c r="D505" s="4">
         <v>4301135550</v>
       </c>
-      <c r="E504" s="3">
+      <c r="E505" s="3">
         <v>4607111034199</v>
       </c>
-      <c r="F504" s="5" t="s">
+      <c r="F505" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505" s="10" t="s">
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B506" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C505" s="3" t="s">
+      <c r="C506" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="D505" s="4">
+      <c r="D506" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E505" s="3">
+      <c r="E506" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F505" s="5" t="s">
+      <c r="F506" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="G505" s="1"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="10" t="s">
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B507" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="C507" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D506" s="4">
+      <c r="D507" s="4">
         <v>4301135570</v>
       </c>
-      <c r="E506" s="3">
+      <c r="E507" s="3">
         <v>4607111035806</v>
       </c>
-      <c r="F506" s="5" t="s">
+      <c r="F507" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="10" t="s">
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B508" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C508" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D507" s="4">
+      <c r="D508" s="4">
         <v>4301132179</v>
       </c>
-      <c r="E507" s="3">
+      <c r="E508" s="3">
         <v>4607111035691</v>
       </c>
-      <c r="F507" s="5" t="s">
+      <c r="F508" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="G507" s="1"/>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508" s="10" t="s">
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B509" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="C509" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="D508" s="4">
+      <c r="D509" s="4">
         <v>4301071063</v>
       </c>
-      <c r="E508" s="3">
+      <c r="E509" s="3">
         <v>4607111039019</v>
       </c>
-      <c r="F508" s="5" t="s">
+      <c r="F509" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="G508" s="1"/>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A509" s="10" t="s">
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B510" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C510" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D509" s="4">
+      <c r="D510" s="4">
         <v>4301071100</v>
       </c>
-      <c r="E509" s="3">
+      <c r="E510" s="3">
         <v>4607111038708</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="F510" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="G509" s="1"/>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="10" t="s">
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D510" s="4">
-        <v>4301135692</v>
-      </c>
-      <c r="E510" s="3">
-        <v>4620207490570</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="G510" s="1"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="10" t="s">
-        <v>998</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>999</v>
@@ -18155,48 +18155,45 @@
       </c>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="B512" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="C512" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D512" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E512" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F512" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="G512" s="21"/>
-      <c r="H512" s="22" t="s">
-        <v>848</v>
-      </c>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D512" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E512" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>106</v>
+        <v>615</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>259</v>
+        <v>616</v>
       </c>
       <c r="D513" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>260</v>
+        <v>617</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18205,22 +18202,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>623</v>
+        <v>106</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>624</v>
+        <v>259</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>625</v>
+        <v>260</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18229,22 +18226,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18253,22 +18250,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>291</v>
+        <v>611</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>292</v>
+        <v>612</v>
       </c>
       <c r="D516" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E516" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18277,22 +18274,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="D517" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18301,22 +18298,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D518" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E518" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F518" s="5" t="s">
-        <v>302</v>
+        <v>792</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C518" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D518" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E518" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18325,22 +18322,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B519" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C519" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D519" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E519" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F519" s="20" t="s">
-        <v>318</v>
+        <v>793</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D519" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E519" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18349,22 +18346,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>549</v>
+        <v>317</v>
       </c>
       <c r="D520" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E520" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>550</v>
+        <v>318</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18373,70 +18370,70 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D521" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E521" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F521" s="5" t="s">
-        <v>943</v>
+        <v>795</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D521" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E521" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F521" s="20" t="s">
+        <v>550</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="16" t="s">
-        <v>937</v>
+      <c r="H521" s="22" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="B522" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C522" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="D522" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E522" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F522" s="20" t="s">
-        <v>627</v>
+        <v>796</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D522" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E522" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>943</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="22" t="s">
-        <v>848</v>
+      <c r="H522" s="16" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>619</v>
+        <v>110</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D523" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18445,22 +18442,22 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="D524" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18469,22 +18466,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D525" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E525" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F525" s="5" t="s">
-        <v>651</v>
+        <v>799</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="D525" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E525" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>648</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18493,70 +18490,70 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>934</v>
+        <v>649</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>935</v>
+        <v>650</v>
       </c>
       <c r="D526" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E526" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>936</v>
+        <v>651</v>
       </c>
       <c r="G526" s="21"/>
-      <c r="H526" s="16" t="s">
-        <v>937</v>
+      <c r="H526" s="22" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>380</v>
+        <v>934</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>381</v>
+        <v>935</v>
       </c>
       <c r="D527" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E527" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>382</v>
+        <v>936</v>
       </c>
       <c r="G527" s="21"/>
-      <c r="H527" s="22" t="s">
-        <v>848</v>
+      <c r="H527" s="16" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>545</v>
+        <v>381</v>
       </c>
       <c r="D528" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E528" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>546</v>
+        <v>382</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18565,22 +18562,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B529" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="C529" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D529" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E529" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F529" s="20" t="s">
-        <v>596</v>
+        <v>803</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D529" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E529" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18589,22 +18586,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>849</v>
+        <v>594</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>850</v>
+        <v>595</v>
       </c>
       <c r="D530" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E530" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18613,22 +18610,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>162</v>
+        <v>849</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>629</v>
+        <v>850</v>
       </c>
       <c r="D531" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E531" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18637,22 +18634,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D532" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E532" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F532" s="5" t="s">
-        <v>299</v>
+        <v>806</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C532" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D532" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E532" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18661,22 +18658,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1005</v>
+        <v>297</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1006</v>
+        <v>298</v>
       </c>
       <c r="D533" s="4">
-        <v>4301071109</v>
+        <v>4301136051</v>
       </c>
       <c r="E533" s="3">
-        <v>4607111035929</v>
+        <v>4640242180304</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1007</v>
+        <v>299</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18685,22 +18682,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>737</v>
+        <v>1005</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>738</v>
+        <v>1006</v>
       </c>
       <c r="D534" s="4">
-        <v>4301135550</v>
+        <v>4301071109</v>
       </c>
       <c r="E534" s="3">
-        <v>4607111034199</v>
+        <v>4607111035929</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>739</v>
+        <v>1007</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18709,22 +18706,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="C535" s="18" t="s">
-        <v>735</v>
-      </c>
-      <c r="D535" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E535" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>736</v>
+        <v>809</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D535" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E535" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>739</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18733,22 +18730,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B536" s="18" t="s">
-        <v>607</v>
+        <v>734</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>608</v>
+        <v>735</v>
       </c>
       <c r="D536" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E536" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F536" s="20" t="s">
-        <v>609</v>
+        <v>736</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18757,22 +18754,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D537" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E537" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F537" s="5" t="s">
-        <v>778</v>
+        <v>811</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C537" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D537" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E537" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F537" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18781,70 +18778,70 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>897</v>
+        <v>776</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>898</v>
+        <v>777</v>
       </c>
       <c r="D538" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E538" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>899</v>
+        <v>778</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>956</v>
+        <v>848</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B539" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="C539" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="D539" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E539" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F539" s="20" t="s">
-        <v>554</v>
+        <v>813</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D539" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E539" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>899</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>848</v>
+        <v>956</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>701</v>
+        <v>552</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>702</v>
+        <v>553</v>
       </c>
       <c r="D540" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E540" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>700</v>
+        <v>554</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18853,22 +18850,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="D541" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E541" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F541" s="5" t="s">
-        <v>878</v>
+        <v>815</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C541" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D541" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E541" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18877,22 +18874,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D542" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E542" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18901,22 +18898,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>950</v>
+        <v>882</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>951</v>
+        <v>883</v>
       </c>
       <c r="D543" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E543" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>952</v>
+        <v>884</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18925,70 +18922,70 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="D544" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E544" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="G544" s="21"/>
-      <c r="H544" s="16" t="s">
-        <v>944</v>
+      <c r="H544" s="22" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>864</v>
+        <v>938</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>865</v>
+        <v>939</v>
       </c>
       <c r="D545" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E545" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>866</v>
+        <v>940</v>
       </c>
       <c r="G545" s="21"/>
-      <c r="H545" s="22" t="s">
-        <v>848</v>
+      <c r="H545" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>731</v>
+        <v>864</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
       <c r="D546" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E546" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>733</v>
+        <v>866</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
@@ -18997,22 +18994,22 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B547" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C547" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D547" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E547" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F547" s="20" t="s">
-        <v>375</v>
+        <v>821</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D547" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E547" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19021,22 +19018,22 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D548" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E548" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F548" s="5" t="s">
-        <v>887</v>
+        <v>822</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D548" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E548" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F548" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19045,70 +19042,70 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D549" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E549" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="G549" s="21"/>
+      <c r="H549" s="22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B550" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C550" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D549" s="4">
+      <c r="D550" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E549" s="3">
+      <c r="E550" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F549" s="5" t="s">
+      <c r="F550" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="G549" s="21"/>
-      <c r="H549" s="16" t="s">
+      <c r="G550" s="21"/>
+      <c r="H550" s="16" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A550" s="17" t="s">
+    <row r="551" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="B550" s="18" t="s">
+      <c r="B551" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="C550" s="18" t="s">
+      <c r="C551" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D550" s="19">
+      <c r="D551" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E550" s="18">
+      <c r="E551" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F550" s="20" t="s">
+      <c r="F551" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="22" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B551" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C551" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D551" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E551" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F551" s="20" t="s">
-        <v>365</v>
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="22" t="s">
@@ -19116,71 +19113,71 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="10" t="s">
+      <c r="A552" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="B552" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C552" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D552" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E552" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F552" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G552" s="21"/>
+      <c r="H552" s="22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="C552" s="3" t="s">
+      <c r="C553" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="D552" s="4">
+      <c r="D553" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E552" s="3">
+      <c r="E553" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F552" s="5" t="s">
+      <c r="F553" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G552" s="1"/>
-      <c r="H552" s="16" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B553" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="C553" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="D553" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E553" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F553" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="G553" s="21"/>
-      <c r="H553" s="22" t="s">
+      <c r="G553" s="1"/>
+      <c r="H553" s="16" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B554" s="18" t="s">
-        <v>152</v>
+        <v>851</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>153</v>
+        <v>852</v>
       </c>
       <c r="D554" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E554" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F554" s="20" t="s">
-        <v>154</v>
+        <v>853</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
@@ -19189,22 +19186,22 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>547</v>
+        <v>829</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19213,22 +19210,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B556" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C556" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D556" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E556" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F556" s="20" t="s">
-        <v>184</v>
+        <v>830</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D556" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E556" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19237,22 +19234,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D557" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E557" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F557" s="5" t="s">
-        <v>707</v>
+        <v>831</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D557" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E557" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19261,22 +19258,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C558" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D558" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E558" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>127</v>
+        <v>707</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D558" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E558" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19285,22 +19282,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D559" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E559" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>721</v>
+        <v>832</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C559" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D559" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E559" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F559" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19309,22 +19306,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B560" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="C560" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="D560" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E560" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F560" s="20" t="s">
-        <v>665</v>
+        <v>833</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D560" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E560" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>721</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19333,22 +19330,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="D561" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E561" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19357,22 +19354,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>179</v>
+        <v>680</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>180</v>
+        <v>681</v>
       </c>
       <c r="D562" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E562" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>181</v>
+        <v>682</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19381,22 +19378,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D563" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E563" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F563" s="5" t="s">
-        <v>168</v>
+        <v>836</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C563" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D563" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E563" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19405,46 +19402,46 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B564" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="C564" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D564" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E564" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F564" s="20" t="s">
-        <v>605</v>
+        <v>837</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D564" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E564" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>854</v>
+        <v>603</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>855</v>
+        <v>604</v>
       </c>
       <c r="D565" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E565" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>856</v>
+        <v>605</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
@@ -19453,46 +19450,46 @@
     </row>
     <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>252</v>
+        <v>857</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>253</v>
+        <v>858</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>150</v>
+        <v>859</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19501,22 +19498,22 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>694</v>
+        <v>252</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>695</v>
+        <v>253</v>
       </c>
       <c r="D568" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>696</v>
+        <v>150</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19525,22 +19522,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="D569" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19549,22 +19546,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19573,22 +19570,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>482</v>
+        <v>668</v>
       </c>
       <c r="D571" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>483</v>
+        <v>669</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19597,22 +19594,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>586</v>
+        <v>482</v>
       </c>
       <c r="D572" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>587</v>
+        <v>483</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19621,30 +19618,54 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>338</v>
+        <v>585</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="D573" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
         <v>848</v>
       </c>
     </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="B574" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C574" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D574" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E574" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F574" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G574" s="21"/>
+      <c r="H574" s="22" t="s">
+        <v>848</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F573" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F574" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\LP_Sochi\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B065A192-E90C-489F-8C23-5E5D8C9408ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB2DA6-8673-497E-BF02-0158FEB695D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1014">
   <si>
     <t>1С</t>
   </si>
@@ -3026,12 +3026,6 @@
     <t>P004806</t>
   </si>
   <si>
-    <t>SU003384</t>
-  </si>
-  <si>
-    <t>P004205</t>
-  </si>
-  <si>
     <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
@@ -3078,6 +3072,15 @@
   </si>
   <si>
     <t>Пельмени «Отборные с говядиной и свининой» 0,43 псевдозащип ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>SU003944</t>
+  </si>
+  <si>
+    <t>P005058</t>
+  </si>
+  <si>
+    <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -11024,10 +11027,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11036,7 +11039,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11048,10 +11051,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11060,7 +11063,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11072,10 +11075,10 @@
         <v>151</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D196" s="4">
         <v>4301071107</v>
@@ -11084,7 +11087,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -11096,10 +11099,10 @@
         <v>763</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D197" s="4">
         <v>4301071107</v>
@@ -11108,7 +11111,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -11120,10 +11123,10 @@
         <v>152</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D198" s="4">
         <v>4301071107</v>
@@ -11132,7 +11135,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -11144,10 +11147,10 @@
         <v>177</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D199" s="4">
         <v>4301071108</v>
@@ -11156,7 +11159,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -11168,10 +11171,10 @@
         <v>269</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D200" s="4">
         <v>4301071108</v>
@@ -11180,7 +11183,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
@@ -11192,10 +11195,10 @@
         <v>302</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D201" s="4">
         <v>4301071108</v>
@@ -11204,7 +11207,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G201" s="1">
         <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
@@ -11216,10 +11219,10 @@
         <v>178</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D202" s="4">
         <v>4301071108</v>
@@ -11228,7 +11231,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -11408,10 +11411,10 @@
         <v>516</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D210" s="4">
         <v>4301071100</v>
@@ -11420,7 +11423,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11429,10 +11432,10 @@
         <v>154</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D211" s="4">
         <v>4301071100</v>
@@ -11441,7 +11444,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G211" s="1" t="e">
         <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
@@ -13090,7 +13093,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>879</v>
@@ -14780,19 +14783,19 @@
         <v>569</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="D354" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E354" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>543</v>
+        <v>1013</v>
       </c>
       <c r="G354" s="1"/>
     </row>
@@ -14801,19 +14804,19 @@
         <v>756</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="D355" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E355" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>543</v>
+        <v>1013</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14822,19 +14825,19 @@
         <v>543</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="D356" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E356" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>543</v>
+        <v>1013</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -16616,10 +16619,10 @@
         <v>875</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D440" s="4">
         <v>4301135826</v>
@@ -16639,10 +16642,10 @@
         <v>886</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16662,10 +16665,10 @@
         <v>887</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16685,10 +16688,10 @@
         <v>866</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -18124,10 +18127,10 @@
         <v>989</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D510" s="4">
         <v>4301071100</v>
@@ -18136,13 +18139,13 @@
         <v>4607111038708</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>993</v>
@@ -18691,10 +18694,10 @@
         <v>804</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D534" s="4">
         <v>4301071109</v>
@@ -18703,7 +18706,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -19195,10 +19198,10 @@
         <v>825</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D555" s="4">
         <v>4301071107</v>
@@ -19207,7 +19210,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19219,19 +19222,19 @@
         <v>826</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="D556" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E556" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>543</v>
+        <v>1013</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19387,10 +19390,10 @@
         <v>832</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D563" s="4">
         <v>4301071108</v>
@@ -19399,7 +19402,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/LP_Sochi/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\LP_Sochi\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1793BAA-A803-442A-95A1-243D504D4DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4A33E0-4F49-4395-B614-72D29E377544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1017">
   <si>
     <t>1С</t>
   </si>
@@ -2999,12 +2999,6 @@
     <t>Пельмени Сочные ТМ Стародворье ТС Сочные ф/п сфера ф/в 0,8 кг МГ</t>
   </si>
   <si>
-    <t>P004634</t>
-  </si>
-  <si>
-    <t>Пельмени «Сочные» 0,43 ТМ «Стародворье»</t>
-  </si>
-  <si>
     <t>Снеки «Жареные вареники с картофелем и беконом Добросельские» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
   <si>
@@ -3087,6 +3081,15 @@
   </si>
   <si>
     <t>Сахно ротация всех кодов (18,11,25 WA)</t>
+  </si>
+  <si>
+    <t>SU003964</t>
+  </si>
+  <si>
+    <t>P005097</t>
+  </si>
+  <si>
+    <t>Пельмени «Сочные» 0,43 сфера ТМ «Медвежье ушко»</t>
   </si>
 </sst>
 </file>
@@ -6346,7 +6349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11033,10 +11036,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11045,7 +11048,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11057,10 +11060,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11069,7 +11072,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11081,10 +11084,10 @@
         <v>151</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D196" s="4">
         <v>4301071105</v>
@@ -11093,14 +11096,14 @@
         <v>4607111035110</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G196" s="1" t="e">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -11108,10 +11111,10 @@
         <v>759</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D197" s="4">
         <v>4301071105</v>
@@ -11120,14 +11123,14 @@
         <v>4607111035110</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G197" s="1" t="e">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -11135,10 +11138,10 @@
         <v>152</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D198" s="4">
         <v>4301071105</v>
@@ -11147,14 +11150,14 @@
         <v>4607111035110</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G198" s="1" t="e">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -11162,10 +11165,10 @@
         <v>177</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D199" s="4">
         <v>4301071108</v>
@@ -11174,7 +11177,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -11186,10 +11189,10 @@
         <v>267</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D200" s="4">
         <v>4301071108</v>
@@ -11198,7 +11201,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
@@ -11210,10 +11213,10 @@
         <v>300</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D201" s="4">
         <v>4301071108</v>
@@ -11222,7 +11225,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G201" s="1">
         <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
@@ -11234,10 +11237,10 @@
         <v>178</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D202" s="4">
         <v>4301071108</v>
@@ -11246,7 +11249,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -11426,10 +11429,10 @@
         <v>514</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D210" s="4">
         <v>4301071100</v>
@@ -11438,7 +11441,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11447,10 +11450,10 @@
         <v>154</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D211" s="4">
         <v>4301071100</v>
@@ -11459,7 +11462,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G211" s="1" t="e">
         <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
@@ -12511,10 +12514,10 @@
         <v>268</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D255" s="4">
         <v>4301071106</v>
@@ -12523,7 +12526,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G255" s="1">
         <f>VLOOKUP(E255,[1]Лист1!$D:$M,10,0)</f>
@@ -12535,10 +12538,10 @@
         <v>317</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D256" s="4">
         <v>4301071106</v>
@@ -12547,7 +12550,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G256" s="1">
         <f>VLOOKUP(E256,[1]Лист1!$D:$M,10,0)</f>
@@ -12559,10 +12562,10 @@
         <v>230</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D257" s="4">
         <v>4301071106</v>
@@ -12571,7 +12574,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G257" s="1">
         <f>VLOOKUP(E257,[1]Лист1!$D:$M,10,0)</f>
@@ -13108,7 +13111,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>875</v>
@@ -14798,10 +14801,10 @@
         <v>567</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D354" s="4">
         <v>4301135824</v>
@@ -14810,7 +14813,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G354" s="1"/>
     </row>
@@ -14819,10 +14822,10 @@
         <v>752</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D355" s="4">
         <v>4301135824</v>
@@ -14831,7 +14834,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14840,10 +14843,10 @@
         <v>541</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D356" s="4">
         <v>4301135824</v>
@@ -14852,7 +14855,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -15575,10 +15578,10 @@
         <v>636</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D391" s="4">
         <v>4301135829</v>
@@ -15596,10 +15599,10 @@
         <v>662</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D392" s="4">
         <v>4301135829</v>
@@ -15617,10 +15620,10 @@
         <v>635</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D393" s="4">
         <v>4301135829</v>
@@ -16634,10 +16637,10 @@
         <v>871</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D440" s="4">
         <v>4301135826</v>
@@ -16657,10 +16660,10 @@
         <v>882</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16680,10 +16683,10 @@
         <v>883</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16703,10 +16706,10 @@
         <v>862</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -18121,19 +18124,19 @@
         <v>984</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>231</v>
+        <v>1014</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="D509" s="4">
-        <v>4301071063</v>
+        <v>4301071099</v>
       </c>
       <c r="E509" s="3">
         <v>4607111039019</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="G509" s="1"/>
     </row>
@@ -18142,10 +18145,10 @@
         <v>985</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D510" s="4">
         <v>4301071100</v>
@@ -18154,19 +18157,19 @@
         <v>4607111038708</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D511" s="4">
         <v>4301135692</v>
@@ -18175,19 +18178,19 @@
         <v>4620207490570</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>990</v>
       </c>
       <c r="D512" s="4">
         <v>4301135692</v>
@@ -18196,7 +18199,7 @@
         <v>4620207490570</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G512" s="1"/>
     </row>
@@ -18709,10 +18712,10 @@
         <v>800</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D534" s="4">
         <v>4301071109</v>
@@ -18721,7 +18724,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -19213,10 +19216,10 @@
         <v>821</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D555" s="4">
         <v>4301071105</v>
@@ -19225,11 +19228,11 @@
         <v>4607111035110</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
@@ -19237,10 +19240,10 @@
         <v>822</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D556" s="4">
         <v>4301135824</v>
@@ -19249,7 +19252,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19405,10 +19408,10 @@
         <v>828</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D563" s="4">
         <v>4301071108</v>
@@ -19417,7 +19420,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
